--- a/20160404 - 003/running_logs/logs.xlsx
+++ b/20160404 - 003/running_logs/logs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="39">
   <si>
     <t>Time</t>
   </si>
@@ -92,6 +92,45 @@
   </si>
   <si>
     <t>20160405_113150</t>
+  </si>
+  <si>
+    <t>20160405_130250</t>
+  </si>
+  <si>
+    <t>remove multiple spaces, convert unicode to ascii, convert to lower, trim "space" and ","</t>
+  </si>
+  <si>
+    <t>2 layers: [100-Sigmoid, 3-Softmax], learning_rate: 0.01, learning_rule: adagrad, n_iterator: 1000</t>
+  </si>
+  <si>
+    <t>20160405_131232</t>
+  </si>
+  <si>
+    <t>20160405_132218</t>
+  </si>
+  <si>
+    <t>20160405_133213</t>
+  </si>
+  <si>
+    <t>20160405_134215</t>
+  </si>
+  <si>
+    <t>20160405_145001</t>
+  </si>
+  <si>
+    <t>2 layers: [100-Sigmoid, 3-Softmax], learning_rate: 0.01, learning_rule: adagrad, n_iterator: 2000</t>
+  </si>
+  <si>
+    <t>20160405_150905</t>
+  </si>
+  <si>
+    <t>20160405_152818</t>
+  </si>
+  <si>
+    <t>20160405_154753</t>
+  </si>
+  <si>
+    <t>20160405_160826</t>
   </si>
 </sst>
 </file>
@@ -423,7 +462,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -778,6 +817,326 @@
         <v>0.239583333333333</v>
       </c>
     </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12">
+        <v>582.653</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12">
+        <v>0.990666666666667</v>
+      </c>
+      <c r="H12">
+        <v>0.99009900990099</v>
+      </c>
+      <c r="I12" t="s">
+        <v>14</v>
+      </c>
+      <c r="J12">
+        <v>0.197916666666667</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13">
+        <v>585.711</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13">
+        <v>0.991333333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.99009900990099</v>
+      </c>
+      <c r="I13" t="s">
+        <v>14</v>
+      </c>
+      <c r="J13">
+        <v>0.364583333333333</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14">
+        <v>595.117</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14">
+        <v>0.993333333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.99009900990099</v>
+      </c>
+      <c r="I14" t="s">
+        <v>14</v>
+      </c>
+      <c r="J14">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15">
+        <v>601.66</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15">
+        <v>0.995333333333333</v>
+      </c>
+      <c r="H15">
+        <v>0.99009900990099</v>
+      </c>
+      <c r="I15" t="s">
+        <v>14</v>
+      </c>
+      <c r="J15">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16">
+        <v>606.031</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16">
+        <v>0.988</v>
+      </c>
+      <c r="H16">
+        <v>0.99009900990099</v>
+      </c>
+      <c r="I16" t="s">
+        <v>14</v>
+      </c>
+      <c r="J16">
+        <v>0.364583333333333</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17">
+        <v>1143.982</v>
+      </c>
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17">
+        <v>0.991333333333333</v>
+      </c>
+      <c r="H17">
+        <v>0.99009900990099</v>
+      </c>
+      <c r="I17" t="s">
+        <v>14</v>
+      </c>
+      <c r="J17">
+        <v>0.385416666666667</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18">
+        <v>1153.666</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18">
+        <v>0.989333333333333</v>
+      </c>
+      <c r="H18">
+        <v>0.99009900990099</v>
+      </c>
+      <c r="I18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J18">
+        <v>0.395833333333333</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19">
+        <v>1174.876</v>
+      </c>
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19">
+        <v>0.994</v>
+      </c>
+      <c r="H19">
+        <v>0.99009900990099</v>
+      </c>
+      <c r="I19" t="s">
+        <v>14</v>
+      </c>
+      <c r="J19">
+        <v>0.40625</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20">
+        <v>1233.093</v>
+      </c>
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20">
+        <v>0.992666666666667</v>
+      </c>
+      <c r="H20">
+        <v>0.99009900990099</v>
+      </c>
+      <c r="I20" t="s">
+        <v>14</v>
+      </c>
+      <c r="J20">
+        <v>0.385416666666667</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21">
+        <v>1247.629</v>
+      </c>
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21">
+        <v>0.99</v>
+      </c>
+      <c r="H21">
+        <v>0.99009900990099</v>
+      </c>
+      <c r="I21" t="s">
+        <v>14</v>
+      </c>
+      <c r="J21">
+        <v>0.40625</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/20160404 - 003/running_logs/logs.xlsx
+++ b/20160404 - 003/running_logs/logs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="53">
   <si>
     <t>Time</t>
   </si>
@@ -131,6 +131,48 @@
   </si>
   <si>
     <t>20160405_160826</t>
+  </si>
+  <si>
+    <t>20160405_164902</t>
+  </si>
+  <si>
+    <t>convert unicode to ascii, remove multiple spaces, convert to lower, trim "space" and ","</t>
+  </si>
+  <si>
+    <t>2 layers: [100-Sigmoid, 3-Softmax], learning_rate: 0.01, learning_rule: adagrad, n_iterator: 4000</t>
+  </si>
+  <si>
+    <t>20160405_172754</t>
+  </si>
+  <si>
+    <t>20160405_180818</t>
+  </si>
+  <si>
+    <t>20160405_184750</t>
+  </si>
+  <si>
+    <t>20160405_192824</t>
+  </si>
+  <si>
+    <t>20160406_081448</t>
+  </si>
+  <si>
+    <t>convert to lower, convert unicode to ascii, trim "space" and ",", remove multiple spaces</t>
+  </si>
+  <si>
+    <t>2 layers: [100-Sigmoid, 3-Softmax], learning_rate: 0.01, learning_rule: adagrad, n_iterator: 6000</t>
+  </si>
+  <si>
+    <t>20160406_091015</t>
+  </si>
+  <si>
+    <t>20160406_100640</t>
+  </si>
+  <si>
+    <t>20160406_112448</t>
+  </si>
+  <si>
+    <t>20160406_130027</t>
   </si>
 </sst>
 </file>
@@ -462,7 +504,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1137,6 +1179,326 @@
         <v>0.40625</v>
       </c>
     </row>
+    <row r="22" spans="1:10">
+      <c r="A22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22">
+        <v>2331.295</v>
+      </c>
+      <c r="C22" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G22">
+        <v>0.992</v>
+      </c>
+      <c r="H22">
+        <v>0.99009900990099</v>
+      </c>
+      <c r="I22" t="s">
+        <v>14</v>
+      </c>
+      <c r="J22">
+        <v>0.354166666666667</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23">
+        <v>2423.942</v>
+      </c>
+      <c r="C23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" t="s">
+        <v>41</v>
+      </c>
+      <c r="G23">
+        <v>0.992</v>
+      </c>
+      <c r="H23">
+        <v>0.99009900990099</v>
+      </c>
+      <c r="I23" t="s">
+        <v>14</v>
+      </c>
+      <c r="J23">
+        <v>0.395833333333333</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24">
+        <v>2372.816</v>
+      </c>
+      <c r="C24" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" t="s">
+        <v>41</v>
+      </c>
+      <c r="G24">
+        <v>0.994666666666667</v>
+      </c>
+      <c r="H24">
+        <v>0.99009900990099</v>
+      </c>
+      <c r="I24" t="s">
+        <v>14</v>
+      </c>
+      <c r="J24">
+        <v>0.40625</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25">
+        <v>2433.274</v>
+      </c>
+      <c r="C25" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" t="s">
+        <v>41</v>
+      </c>
+      <c r="G25">
+        <v>0.992666666666667</v>
+      </c>
+      <c r="H25">
+        <v>0.99009900990099</v>
+      </c>
+      <c r="I25" t="s">
+        <v>14</v>
+      </c>
+      <c r="J25">
+        <v>0.40625</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26">
+        <v>2391.304</v>
+      </c>
+      <c r="C26" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" t="s">
+        <v>41</v>
+      </c>
+      <c r="G26">
+        <v>0.993333333333333</v>
+      </c>
+      <c r="H26">
+        <v>0.99009900990099</v>
+      </c>
+      <c r="I26" t="s">
+        <v>14</v>
+      </c>
+      <c r="J26">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27">
+        <v>3327.672</v>
+      </c>
+      <c r="C27" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" t="s">
+        <v>48</v>
+      </c>
+      <c r="G27">
+        <v>0.992666666666667</v>
+      </c>
+      <c r="H27">
+        <v>0.99009900990099</v>
+      </c>
+      <c r="I27" t="s">
+        <v>14</v>
+      </c>
+      <c r="J27">
+        <v>0.385416666666667</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28">
+        <v>3384.742</v>
+      </c>
+      <c r="C28" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" t="s">
+        <v>48</v>
+      </c>
+      <c r="G28">
+        <v>0.996</v>
+      </c>
+      <c r="H28">
+        <v>0.99009900990099</v>
+      </c>
+      <c r="I28" t="s">
+        <v>14</v>
+      </c>
+      <c r="J28">
+        <v>0.395833333333333</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29">
+        <v>4688.205</v>
+      </c>
+      <c r="C29" t="s">
+        <v>47</v>
+      </c>
+      <c r="D29" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" t="s">
+        <v>48</v>
+      </c>
+      <c r="G29">
+        <v>0.994</v>
+      </c>
+      <c r="H29">
+        <v>0.99009900990099</v>
+      </c>
+      <c r="I29" t="s">
+        <v>14</v>
+      </c>
+      <c r="J29">
+        <v>0.395833333333333</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30">
+        <v>5738.497</v>
+      </c>
+      <c r="C30" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" t="s">
+        <v>48</v>
+      </c>
+      <c r="G30">
+        <v>0.992</v>
+      </c>
+      <c r="H30">
+        <v>0.99009900990099</v>
+      </c>
+      <c r="I30" t="s">
+        <v>14</v>
+      </c>
+      <c r="J30">
+        <v>0.385416666666667</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31">
+        <v>6565.086</v>
+      </c>
+      <c r="C31" t="s">
+        <v>47</v>
+      </c>
+      <c r="D31" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" t="s">
+        <v>48</v>
+      </c>
+      <c r="G31">
+        <v>0.989333333333333</v>
+      </c>
+      <c r="H31">
+        <v>0.99009900990099</v>
+      </c>
+      <c r="I31" t="s">
+        <v>14</v>
+      </c>
+      <c r="J31">
+        <v>0.385416666666667</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
